--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Seat Map" sheetId="7" r:id="rId1"/>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -273,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -290,12 +298,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +322,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +638,8 @@
   </sheetPr>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,239 +662,239 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+    <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="11"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="11"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="11"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+    <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -928,238 +939,238 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="11"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="11"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="11"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1179,7 +1190,7 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -638,15 +638,17 @@
   </sheetPr>
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" customWidth="1"/>
     <col min="11" max="13" width="14" customWidth="1"/>
@@ -915,7 +917,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495"/>
   </bookViews>
   <sheets>
-    <sheet name="Seat Map" sheetId="7" r:id="rId1"/>
-    <sheet name="Seat Map Changes" sheetId="8" r:id="rId2"/>
+    <sheet name="Seat Map" sheetId="8" r:id="rId1"/>
+    <sheet name="Seat Map Changing" sheetId="7" r:id="rId2"/>
     <sheet name="20140701" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
   <si>
     <t>Furu</t>
   </si>
@@ -156,13 +156,19 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>Before changing</t>
+  </si>
+  <si>
+    <t>After changing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,8 +205,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +245,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -277,11 +295,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -293,16 +406,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,14 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,11 +424,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,273 +780,316 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="13" width="14" customWidth="1"/>
-    <col min="14" max="18" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="8" width="14" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="14" width="14" customWidth="1"/>
+    <col min="15" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="20" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="22" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="23" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="23" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
+      <c r="I17" s="16"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
@@ -914,271 +1101,617 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J16"/>
+  <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14" customWidth="1"/>
-    <col min="8" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="13" width="14" customWidth="1"/>
-    <col min="14" max="18" width="12" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="19" width="14" customWidth="1"/>
+    <col min="20" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" customWidth="1"/>
+    <col min="23" max="24" width="14" customWidth="1"/>
+    <col min="25" max="29" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="M2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="20" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="22" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="L6" s="28"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
+    </row>
+    <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26"/>
+    </row>
+    <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="22"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="O9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="P9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="22"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="O10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="P10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="S10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="22"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="S12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="19" t="s">
+      <c r="T12" s="18"/>
+      <c r="U12" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="13" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="H13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="P13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16" t="s">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="S13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19" t="s">
+      <c r="T13" s="18"/>
+      <c r="U13" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="14" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="22"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="O15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="P15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="T15" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="22"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="O16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="S16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="T16" s="16"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="22"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="O18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="P18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13" t="s">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="S18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="T18" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="22"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="O19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="P19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="S19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
+      <c r="T19" s="16"/>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="24"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="24"/>
+    </row>
+    <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H15:H16"/>
+  <mergeCells count="8">
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T18:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
@@ -1192,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Seat Map" sheetId="8" r:id="rId1"/>
@@ -206,15 +206,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -283,15 +283,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -424,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,37 +424,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,8 +458,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,8 +773,8 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,9 +792,9 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="20"/>
-      <c r="D2" s="32"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -812,7 +803,7 @@
       <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
@@ -827,7 +818,7 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -836,12 +827,12 @@
       <c r="H4" s="12"/>
       <c r="I4" s="18"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
@@ -856,10 +847,10 @@
       <c r="H5" s="12"/>
       <c r="I5" s="18"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
       <c r="C6" s="12"/>
       <c r="D6" s="19"/>
       <c r="E6" s="12"/>
@@ -868,10 +859,10 @@
       <c r="H6" s="12"/>
       <c r="I6" s="18"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
@@ -888,7 +879,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
@@ -909,7 +900,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12"/>
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
@@ -920,7 +911,7 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -936,12 +927,12 @@
         <v>41</v>
       </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -959,12 +950,12 @@
         <v>41</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12"/>
       <c r="D12" s="19"/>
       <c r="E12" s="12"/>
@@ -975,7 +966,7 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
@@ -998,7 +989,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="14" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1010,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12"/>
       <c r="D15" s="19"/>
       <c r="E15" s="12"/>
@@ -1030,7 +1021,7 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1044,7 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1074,14 +1065,14 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1103,8 +1094,8 @@
   </sheetPr>
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,39 +1147,39 @@
       <c r="U2" s="17"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
-      <c r="M4" s="31"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -1197,7 +1188,7 @@
       <c r="U4" s="21"/>
     </row>
     <row r="5" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1201,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="18"/>
       <c r="J5" s="22"/>
-      <c r="M5" s="33"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1216,7 @@
       <c r="U5" s="22"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1234,11 +1225,11 @@
       <c r="H6" s="12"/>
       <c r="I6" s="18"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1247,12 +1238,12 @@
       <c r="S6" s="12"/>
       <c r="T6" s="18"/>
       <c r="U6" s="25"/>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1267,9 +1258,9 @@
       <c r="H7" s="12"/>
       <c r="I7" s="18"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1284,10 +1275,10 @@
       <c r="S7" s="12"/>
       <c r="T7" s="18"/>
       <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="V7" s="39"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="12"/>
       <c r="D8" s="19"/>
       <c r="E8" s="12"/>
@@ -1296,9 +1287,9 @@
       <c r="H8" s="12"/>
       <c r="I8" s="18"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="33"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="12"/>
       <c r="O8" s="19"/>
       <c r="P8" s="12"/>
@@ -1307,10 +1298,10 @@
       <c r="S8" s="12"/>
       <c r="T8" s="18"/>
       <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="V8" s="39"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1316,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="18"/>
       <c r="J9" s="22"/>
-      <c r="M9" s="33"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1333,7 @@
       <c r="U9" s="22"/>
     </row>
     <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1352,7 @@
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="22"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +1373,7 @@
       <c r="U10" s="22"/>
     </row>
     <row r="11" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12"/>
       <c r="D11" s="19"/>
       <c r="E11" s="12"/>
@@ -1391,7 +1382,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="18"/>
       <c r="J11" s="22"/>
-      <c r="M11" s="33"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="12"/>
       <c r="O11" s="19"/>
       <c r="P11" s="12"/>
@@ -1402,7 +1393,7 @@
       <c r="U11" s="22"/>
     </row>
     <row r="12" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
@@ -1411,17 +1402,17 @@
         <v>30</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="35" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11" t="s">
         <v>39</v>
@@ -1442,7 +1433,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1453,17 +1444,17 @@
         <v>3</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1477,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="12"/>
       <c r="D14" s="19"/>
       <c r="E14" s="12"/>
@@ -1495,7 +1486,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="18"/>
       <c r="J14" s="22"/>
-      <c r="M14" s="33"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="12"/>
       <c r="O14" s="19"/>
       <c r="P14" s="12"/>
@@ -1506,7 +1497,7 @@
       <c r="U14" s="22"/>
     </row>
     <row r="15" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1518,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1541,7 @@
       <c r="U15" s="22"/>
     </row>
     <row r="16" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1560,7 @@
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="22"/>
-      <c r="M16" s="33"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1581,7 @@
       <c r="U16" s="22"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="12"/>
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
@@ -1599,7 +1590,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="18"/>
       <c r="J17" s="22"/>
-      <c r="M17" s="33"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="12"/>
       <c r="O17" s="19"/>
       <c r="P17" s="12"/>
@@ -1610,9 +1601,9 @@
       <c r="U17" s="22"/>
     </row>
     <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
@@ -1621,11 +1612,11 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" s="33"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1648,9 +1639,9 @@
       <c r="U18" s="22"/>
     </row>
     <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -1659,9 +1650,9 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="22"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1682,23 +1673,23 @@
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="24"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="24"/>
     </row>
     <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Seat Map" sheetId="8" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,6 +208,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -241,7 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,14 +424,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,15 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -458,14 +467,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,8 +788,8 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,47 +807,47 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="40" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
@@ -845,24 +860,24 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="40"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="40"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
@@ -875,11 +890,11 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
@@ -896,22 +911,22 @@
       <c r="H8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -926,13 +941,13 @@
       <c r="H10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -949,24 +964,24 @@
       <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
@@ -983,13 +998,13 @@
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="14" t="s">
         <v>5</v>
       </c>
@@ -1006,22 +1021,22 @@
       <c r="H14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="22"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
@@ -1038,13 +1053,13 @@
       <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1061,19 +1076,19 @@
       <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1094,8 +1109,8 @@
   </sheetPr>
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,128 +1137,128 @@
     <col min="25" max="29" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="22"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="15" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="20"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="39" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="39" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="22"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="20"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="39" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="31"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="39" t="s">
+      <c r="T6" s="16"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1256,11 +1271,11 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="31"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1273,35 +1288,35 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="39"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="31"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="39"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="37"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1314,9 +1329,9 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
-      <c r="M9" s="31"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1329,11 +1344,11 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="22"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1350,9 +1365,9 @@
       <c r="H10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="22"/>
-      <c r="M10" s="31"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="20"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1369,31 +1384,31 @@
       <c r="S10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="22"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
-      <c r="M11" s="31"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="20"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="22"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
@@ -1402,17 +1417,17 @@
         <v>30</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="23" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="31"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11" t="s">
         <v>39</v>
@@ -1427,13 +1442,13 @@
       <c r="S12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="23" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1444,17 +1459,17 @@
         <v>3</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1471,33 +1486,33 @@
       <c r="S13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="23" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="22"/>
-      <c r="M14" s="31"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="20"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="19"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="22"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="20"/>
     </row>
     <row r="15" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1514,11 +1529,11 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="M15" s="31"/>
+      <c r="J15" s="20"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1535,13 +1550,13 @@
       <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U15" s="22"/>
+      <c r="U15" s="20"/>
     </row>
     <row r="16" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
@@ -1558,9 +1573,9 @@
       <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="22"/>
-      <c r="M16" s="31"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="20"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1577,33 +1592,33 @@
       <c r="S16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="22"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="20"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="22"/>
-      <c r="M17" s="31"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="22"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="20"/>
     </row>
     <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
@@ -1612,11 +1627,11 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="M18" s="31"/>
+      <c r="J18" s="20"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1633,15 +1648,15 @@
       <c r="S18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="22"/>
+      <c r="U18" s="20"/>
     </row>
     <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -1650,9 +1665,9 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="22"/>
-      <c r="M19" s="31"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="20"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1669,28 +1684,28 @@
       <c r="S19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="22"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="20"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="24"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="22"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="22"/>
     </row>
     <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t>Furu</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>After changing</t>
+  </si>
+  <si>
+    <t>Meeting  room</t>
+  </si>
+  <si>
+    <t>Meeting room</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +214,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -304,17 +317,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -375,6 +377,68 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -400,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -436,28 +500,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,19 +530,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +870,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,33 +888,35 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="28"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="39" t="s">
+      <c r="G2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="20"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -841,13 +924,13 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
@@ -861,11 +944,11 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12"/>
       <c r="D6" s="17"/>
       <c r="E6" s="12"/>
@@ -873,11 +956,11 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="38"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
@@ -891,10 +974,10 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
@@ -912,10 +995,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12"/>
       <c r="D9" s="17"/>
       <c r="E9" s="12"/>
@@ -923,10 +1006,10 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -942,12 +1025,12 @@
         <v>41</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -965,12 +1048,12 @@
         <v>41</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12"/>
       <c r="D12" s="17"/>
       <c r="E12" s="12"/>
@@ -978,10 +1061,10 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
@@ -1001,10 +1084,10 @@
       <c r="I13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="14" t="s">
         <v>5</v>
       </c>
@@ -1022,10 +1105,10 @@
         <v>29</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12"/>
       <c r="D15" s="17"/>
       <c r="E15" s="12"/>
@@ -1033,10 +1116,10 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +1139,10 @@
       <c r="I16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1077,25 +1160,26 @@
         <v>13</v>
       </c>
       <c r="I17" s="15"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
@@ -1110,7 +1194,7 @@
   <dimension ref="B2:V21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G4" sqref="G4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,100 +1222,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="M2" s="40" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="M4" s="27"/>
+      <c r="G4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="28"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="39" t="s">
+      <c r="R4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+    </row>
+    <row r="5" spans="2:22" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="20"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="39" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="38" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="38" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="20"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="45"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1239,12 +1327,12 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="37" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="29"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1252,13 +1340,13 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="37" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1272,10 +1360,10 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="29"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1289,11 +1377,11 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="37"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12"/>
       <c r="D8" s="17"/>
       <c r="E8" s="12"/>
@@ -1301,10 +1389,10 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="29"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="12"/>
       <c r="O8" s="17"/>
       <c r="P8" s="12"/>
@@ -1312,11 +1400,11 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="37"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="36"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1330,8 +1418,8 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="20"/>
-      <c r="M9" s="29"/>
+      <c r="J9" s="19"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1345,10 +1433,10 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="20"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1366,8 +1454,8 @@
         <v>37</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="20"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="19"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1385,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="T10" s="16"/>
-      <c r="U10" s="20"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12"/>
       <c r="D11" s="17"/>
       <c r="E11" s="12"/>
@@ -1396,8 +1484,8 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="20"/>
-      <c r="M11" s="29"/>
+      <c r="J11" s="19"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="12"/>
       <c r="O11" s="17"/>
       <c r="P11" s="12"/>
@@ -1405,10 +1493,10 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="20"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
@@ -1417,17 +1505,17 @@
         <v>30</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="29"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11" t="s">
         <v>39</v>
@@ -1443,12 +1531,12 @@
         <v>41</v>
       </c>
       <c r="T12" s="16"/>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1459,17 +1547,17 @@
         <v>3</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="32" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="29"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1487,12 +1575,12 @@
         <v>41</v>
       </c>
       <c r="T13" s="16"/>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12"/>
       <c r="D14" s="17"/>
       <c r="E14" s="12"/>
@@ -1500,8 +1588,8 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="20"/>
-      <c r="M14" s="29"/>
+      <c r="J14" s="19"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="12"/>
       <c r="O14" s="17"/>
       <c r="P14" s="12"/>
@@ -1509,10 +1597,10 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="19"/>
     </row>
     <row r="15" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1532,8 +1620,8 @@
       <c r="I15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="M15" s="29"/>
+      <c r="J15" s="19"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="14" t="s">
         <v>8</v>
       </c>
@@ -1553,10 +1641,10 @@
       <c r="T15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U15" s="20"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
@@ -1574,8 +1662,8 @@
         <v>13</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="20"/>
-      <c r="M16" s="29"/>
+      <c r="J16" s="19"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1593,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="T16" s="15"/>
-      <c r="U16" s="20"/>
+      <c r="U16" s="19"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="12"/>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1604,8 +1692,8 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="20"/>
-      <c r="M17" s="29"/>
+      <c r="J17" s="19"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="12"/>
       <c r="O17" s="17"/>
       <c r="P17" s="12"/>
@@ -1613,12 +1701,12 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="20"/>
+      <c r="U17" s="19"/>
     </row>
     <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
@@ -1627,11 +1715,11 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="M18" s="29"/>
+      <c r="J18" s="19"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1651,12 +1739,12 @@
       <c r="T18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="20"/>
+      <c r="U18" s="19"/>
     </row>
     <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -1665,9 +1753,9 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="20"/>
-      <c r="M19" s="29"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="19"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1685,31 +1773,33 @@
         <v>13</v>
       </c>
       <c r="T19" s="15"/>
-      <c r="U19" s="20"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="22"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="22"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="21"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="21"/>
     </row>
     <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="R4:U5"/>
+    <mergeCell ref="G4:J5"/>
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="I15:I16"/>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -482,14 +482,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,7 +561,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -869,8 +923,8 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,128 +942,128 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="40" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="37" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+    <row r="5" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
       <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="14" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -1018,57 +1072,57 @@
         <v>40</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+    <row r="12" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="14" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1081,14 +1135,14 @@
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="14" t="s">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1101,29 +1155,29 @@
       <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1136,17 +1190,17 @@
       <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -1159,19 +1213,19 @@
       <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1181,6 +1235,11 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G2:J3"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:I17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Empty"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1193,8 +1252,8 @@
   </sheetPr>
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J5"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,281 +1281,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="40" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="40" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="40"/>
     </row>
     <row r="5" spans="2:22" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="38" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="36" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="36" t="s">
+      <c r="T6" s="14"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="28"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="30" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="36"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="34"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="28"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="36"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="19"/>
-      <c r="M9" s="28"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="17"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="19"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="19"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="14" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="17"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="19"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="19"/>
-      <c r="M11" s="28"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="17"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="17"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="19"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
         <v>4</v>
@@ -1505,17 +1564,17 @@
         <v>30</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11" t="s">
         <v>39</v>
@@ -1524,87 +1583,87 @@
         <v>40</v>
       </c>
       <c r="Q12" s="12"/>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="20" t="s">
+      <c r="T12" s="14"/>
+      <c r="U12" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="20" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="19"/>
-      <c r="M14" s="28"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="19"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1617,15 +1676,15 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="14" t="s">
+      <c r="J15" s="17"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -1638,14 +1697,14 @@
       <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="U15" s="19"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1658,13 +1717,13 @@
       <c r="G16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="19"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="14" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="17"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -1677,36 +1736,36 @@
       <c r="R16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="19"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="19"/>
-      <c r="M17" s="28"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="17"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="17"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="19"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
@@ -1715,15 +1774,15 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="M18" s="28"/>
+      <c r="J18" s="17"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="P18" s="11" t="s">
@@ -1736,15 +1795,15 @@
       <c r="S18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="19"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -1753,13 +1812,13 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="19"/>
-      <c r="M19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="17"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="P19" s="11" t="s">
@@ -1772,28 +1831,28 @@
       <c r="S19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="19"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="21"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="21"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="19"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1809,6 +1868,16 @@
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="T18:T19"/>
   </mergeCells>
+  <conditionalFormatting sqref="C7:I19">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Empty"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:T19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Empty"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9495"/>
   </bookViews>
   <sheets>
-    <sheet name="Seat Map" sheetId="8" r:id="rId1"/>
-    <sheet name="Seat Map Changing" sheetId="7" r:id="rId2"/>
+    <sheet name="Seat Changing" sheetId="7" r:id="rId1"/>
+    <sheet name="Seat Map" sheetId="8" r:id="rId2"/>
     <sheet name="20140701" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId5"/>
@@ -518,85 +518,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -612,12 +581,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill>
-          <fgColor rgb="FFFFFF00"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,338 +887,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="14" width="14" customWidth="1"/>
-    <col min="15" max="19" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G2:J3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:I17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Empty"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1281,28 +918,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="M2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="M2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="22"/>
@@ -1331,51 +968,51 @@
       <c r="D4" s="25"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="25"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="40"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="38"/>
     </row>
     <row r="5" spans="2:22" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="M5" s="26"/>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="33" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="43"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="41"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
@@ -1387,7 +1024,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="14"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="43" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="21"/>
@@ -1400,7 +1037,7 @@
       <c r="S6" s="12"/>
       <c r="T6" s="14"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1420,7 +1057,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="21"/>
       <c r="M7" s="26"/>
       <c r="N7" s="11" t="s">
@@ -1437,7 +1074,7 @@
       <c r="S7" s="12"/>
       <c r="T7" s="14"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="34"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
@@ -1449,7 +1086,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="14"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="34"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="21"/>
       <c r="M8" s="26"/>
       <c r="N8" s="12"/>
@@ -1460,7 +1097,7 @@
       <c r="S8" s="12"/>
       <c r="T8" s="14"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="34"/>
+      <c r="V8" s="43"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
@@ -1676,7 +1313,7 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="35" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="17"/>
@@ -1697,7 +1334,7 @@
       <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="35" t="s">
         <v>41</v>
       </c>
       <c r="U15" s="17"/>
@@ -1720,7 +1357,7 @@
       <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="17"/>
       <c r="M16" s="26"/>
       <c r="N16" s="13" t="s">
@@ -1739,7 +1376,7 @@
       <c r="S16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="31"/>
+      <c r="T16" s="35"/>
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1402,7 @@
     <row r="18" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
@@ -1774,7 +1411,7 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="35" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="17"/>
@@ -1795,7 +1432,7 @@
       <c r="S18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="T18" s="35" t="s">
         <v>41</v>
       </c>
       <c r="U18" s="17"/>
@@ -1803,7 +1440,7 @@
     <row r="19" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
@@ -1812,7 +1449,7 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="17"/>
       <c r="M19" s="26"/>
       <c r="N19" s="11" t="s">
@@ -1831,7 +1468,7 @@
       <c r="S19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="31"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1857,24 +1494,353 @@
     <row r="21" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T18:T19"/>
     <mergeCell ref="R4:U5"/>
     <mergeCell ref="G4:J5"/>
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T18:T19"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I19">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Empty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:T19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Empty"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="8" width="14" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="14" width="14" customWidth="1"/>
+    <col min="15" max="19" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G2:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:I17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Empty"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1890,7 +1856,7 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Temp/Transfer/Seat Map.xlsx
+++ b/trunk/Temp/Transfer/Seat Map.xlsx
@@ -220,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,6 +236,13 @@
     <font>
       <sz val="20"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -521,41 +521,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,19 +567,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -889,8 +886,8 @@
   </sheetPr>
   <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +899,8 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" customWidth="1"/>
@@ -911,35 +909,36 @@
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="19" width="14" customWidth="1"/>
-    <col min="20" max="21" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" customWidth="1"/>
     <col min="22" max="22" width="5.85546875" customWidth="1"/>
     <col min="23" max="24" width="14" customWidth="1"/>
     <col min="25" max="29" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="M2" s="42" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="22"/>
@@ -968,51 +967,51 @@
       <c r="D4" s="25"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="25"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="2:22" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
       <c r="M5" s="26"/>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="41"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="42"/>
     </row>
     <row r="6" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
@@ -1024,7 +1023,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="14"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="35" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="21"/>
@@ -1037,7 +1036,7 @@
       <c r="S6" s="12"/>
       <c r="T6" s="14"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="43" t="s">
+      <c r="V6" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1057,7 +1056,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="14"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="43"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="21"/>
       <c r="M7" s="26"/>
       <c r="N7" s="11" t="s">
@@ -1074,7 +1073,7 @@
       <c r="S7" s="12"/>
       <c r="T7" s="14"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="43"/>
+      <c r="V7" s="35"/>
     </row>
     <row r="8" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
@@ -1086,7 +1085,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="14"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="21"/>
       <c r="M8" s="26"/>
       <c r="N8" s="12"/>
@@ -1097,7 +1096,7 @@
       <c r="S8" s="12"/>
       <c r="T8" s="14"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="43"/>
+      <c r="V8" s="35"/>
     </row>
     <row r="9" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
@@ -1313,7 +1312,7 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="17"/>
@@ -1334,7 +1333,7 @@
       <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="U15" s="17"/>
@@ -1357,7 +1356,7 @@
       <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="17"/>
       <c r="M16" s="26"/>
       <c r="N16" s="13" t="s">
@@ -1376,7 +1375,7 @@
       <c r="S16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="35"/>
+      <c r="T16" s="34"/>
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1410,7 @@
       <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="17"/>
@@ -1432,7 +1431,7 @@
       <c r="S18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="34" t="s">
         <v>41</v>
       </c>
       <c r="U18" s="17"/>
@@ -1449,7 +1448,7 @@
       <c r="H19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="17"/>
       <c r="M19" s="26"/>
       <c r="N19" s="11" t="s">
@@ -1468,7 +1467,7 @@
       <c r="S19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="35"/>
+      <c r="T19" s="34"/>
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1506,12 +1505,12 @@
     <mergeCell ref="I15:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:I19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Empty"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:T19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Empty"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1527,8 +1526,8 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1537,8 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="14" width="14" customWidth="1"/>
     <col min="15" max="19" width="12" customWidth="1"/>
@@ -1551,27 +1551,27 @@
       <c r="D2" s="25"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
@@ -1583,7 +1583,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="14"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="14"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="34"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
@@ -1615,7 +1615,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="14"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
@@ -1683,7 +1683,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="14"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="17"/>
@@ -1762,7 +1762,7 @@
       <c r="H14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
       <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="34" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="17"/>
@@ -1817,7 +1817,7 @@
       <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
     <mergeCell ref="G2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:I17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Empty"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1856,8 +1856,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
